--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201105_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201105_NhatQuang.xlsx
@@ -742,6 +742,55 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,55 +809,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1189,68 +1189,68 @@
       <c r="A1" s="32"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="24"/>
       <c r="F6" s="48"/>
       <c r="G6" s="17"/>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1272,12 +1272,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="49"/>
       <c r="G8" s="45"/>
       <c r="H8" s="15"/>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1345,7 +1345,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
       <c r="B12" s="40" t="s">
         <v>23</v>
       </c>
@@ -1364,7 +1366,9 @@
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
       <c r="B13" s="40" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1389,9 @@
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
       <c r="B14" s="40" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1410,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
       <c r="B15" s="40" t="s">
         <v>31</v>
       </c>
@@ -1417,8 +1425,8 @@
       <c r="E15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="79" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="58" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="40" t="s">
@@ -1427,7 +1435,9 @@
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
       <c r="B16" s="40" t="s">
         <v>29</v>
       </c>
@@ -1438,15 +1448,17 @@
       <c r="E16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="52" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
       <c r="B17" s="40" t="s">
         <v>29</v>
       </c>
@@ -1457,8 +1469,8 @@
       <c r="E17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="52" t="s">
         <v>27</v>
       </c>
@@ -1492,29 +1504,29 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
@@ -1561,30 +1573,37 @@
       <c r="I25" s="29"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="62" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
     <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
     </row>
     <row r="69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B7:C7"/>
@@ -1594,13 +1613,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201105_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201105_NhatQuang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\04.TraBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\04.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,6 +742,55 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,55 +809,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1189,68 +1189,68 @@
       <c r="A1" s="32"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="24"/>
       <c r="F6" s="48"/>
       <c r="G6" s="17"/>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1272,12 +1272,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="49"/>
       <c r="G8" s="45"/>
       <c r="H8" s="15"/>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1345,7 +1345,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="40">
+        <v>1</v>
+      </c>
       <c r="B12" s="40" t="s">
         <v>23</v>
       </c>
@@ -1364,7 +1366,9 @@
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="40">
+        <v>2</v>
+      </c>
       <c r="B13" s="40" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1389,9 @@
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="40">
+        <v>3</v>
+      </c>
       <c r="B14" s="40" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1410,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="40">
+        <v>4</v>
+      </c>
       <c r="B15" s="40" t="s">
         <v>31</v>
       </c>
@@ -1417,8 +1425,8 @@
       <c r="E15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="79" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="58" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="40" t="s">
@@ -1427,7 +1435,9 @@
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="40">
+        <v>5</v>
+      </c>
       <c r="B16" s="40" t="s">
         <v>29</v>
       </c>
@@ -1438,15 +1448,17 @@
       <c r="E16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="52" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="40">
+        <v>6</v>
+      </c>
       <c r="B17" s="40" t="s">
         <v>29</v>
       </c>
@@ -1457,8 +1469,8 @@
       <c r="E17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="52" t="s">
         <v>27</v>
       </c>
@@ -1492,29 +1504,29 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
@@ -1561,30 +1573,37 @@
       <c r="I25" s="29"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="62" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
     <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
     </row>
     <row r="69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B7:C7"/>
@@ -1594,13 +1613,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
